--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/6 PRUEBA DE ADICIONES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/6 PRUEBA DE ADICIONES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F7EA9-3EF5-4375-A706-5D7398D396B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,15 +52,6 @@
     <t>=</t>
   </si>
   <si>
-    <t xml:space="preserve">                                         AUDITORIA FINANCIERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                EMPRESA YYY. S. A .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                 Responsable</t>
   </si>
   <si>
@@ -121,9 +107,6 @@
   </si>
   <si>
     <t>Verificación Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                PRUEBA DE ADICIONES</t>
   </si>
   <si>
     <r>
@@ -150,11 +133,23 @@
   <si>
     <t>F-5</t>
   </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>AUDITORIA FINANCIERA</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>PRUEBA DE ADICIONES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -382,9 +377,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,6 +411,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +455,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D546D8-61D5-48B5-BE3F-DC2F197C992D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -512,7 +510,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357CC929-BBA3-4C3B-83EF-012783752697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,7 +565,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7A4C64-07CC-4F71-B9E3-26D5D20E01AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -635,7 +633,7 @@
         <xdr:cNvPr id="7" name="Triángulo isósceles 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C06A8B-F4A4-4998-AA59-1BD3F6DDE7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +698,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1045,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1060,12 +1064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,132 +1082,138 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="19" t="s">
-        <v>35</v>
+      <c r="I3" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="D5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="H7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="H8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="D8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="F10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="D11" s="14">
+        <v>45275</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="12" t="s">
+    </row>
+    <row r="12" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15">
-        <v>45275</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
+      <c r="D12" s="14">
+        <v>45280</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+    </row>
+    <row r="13" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="15">
-        <v>45280</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
+      <c r="D13" s="14">
+        <v>45281</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="15">
-        <v>45281</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
@@ -1230,36 +1240,36 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1275,16 +1285,20 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B21:I23"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
